--- a/Document/Code_source/Sample_Data/Sample_DataList.xlsx
+++ b/Document/Code_source/Sample_Data/Sample_DataList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="318">
   <si>
     <t>고객번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20-9986-7698</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>컴마스터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -251,10 +247,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>조용필</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -359,7 +351,931 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>최ㅈ</t>
+    <t>최지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정혜지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서초구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 성남시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 이천시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서초구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 동두천시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 화성시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 사상구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시 달서구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 평창군</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 용인시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 광주시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시 달서구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 이천시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 중구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 남양주시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5523-7687</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4431-8364</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5514-6428</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1214-7913</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3347-0825</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6967-4316</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8857-9536</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4863-7541</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8645-2132</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2623-5424</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7563-7255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7968-1152</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2431-1247</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2148-7787</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7935-7935</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3424-4457</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3568-8953</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-6878-2421</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9896-9735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8647-1208</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4235-0830</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>minkuck324</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>minkuck324@daum.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholenum479</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholenum479@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner687</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner687@nate.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rkdwjdwo9807</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rkdwjdwo9807@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christian333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christian333@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>longsteel643</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>longsteel643@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arumi070</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arumi070@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitkatkitkat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitkatkitkat@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatfish88</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatfish88@daum.net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeeJA222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeeJA222@nate.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christYoHanS2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>christYoHanS2@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HaaaaInsertH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HaaaaInsertH@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaSitGerng999</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaSitGerng999@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiwonKim500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiwonKim500@google.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BakeryJMA567</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BakeryJMA567@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteakerLJP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteakerLJP@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jooCYon0674</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jooCYon0674@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJYThe88years</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJYThe88years@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LernnerJung5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LernnerJung5@google.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJWonCJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJWonCJ@google.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HyeJInoYumi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HyeJInoYumi@naver.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kor7687k</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>371113num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat9600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>79130218cvx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS999ML</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>longger1997</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08269536Arum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunky7541</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdsuh22336212</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>54242362qwer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9255jjct7255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha1152asdf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigeonTO999</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>583492761kim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>979bak5532</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>myHeart7080</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jooChajang8953</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buipemi9898</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studing9735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1208cjenm8647</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youandme0824</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴과장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성컴퓨터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이스메이커</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레비PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼별모니터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한전파워서플라이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanoSoft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PvidiaKorea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드갤러리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설빙Cooler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-9986-7698</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rugitecMouse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬SSD/HDD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건키보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMonD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성모니터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피커맥스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdoGenCreaterSW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MegaByte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountinGate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RADEOFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번컴퓨터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-4587-5456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-6987-5460</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-6421-1561</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1246-8956</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3167-3572</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-7934-7525</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-5715-7563</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-8533-8841</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-4567-1237</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-8547-6890</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3597-2020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1005-3024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-8024-4302</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1254-9562</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-4634-1379</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-5621-8643</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-7894-8478</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2108-0013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1785-7534</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3563-6443</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-6533-5532</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1236-7411</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이금성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조진영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광정호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황정원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>류재원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배철수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정주형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박광열</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최철웅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍민기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황재성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박경원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>045-1231-4464-31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>453-212-456741</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>231246-04-126887</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>063-3231-4564-32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>654-6345-3322-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>553-8659-9932-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>768-8436-1743-86</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>213162-05-231663</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>112363-06-234511</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>321101-45-662123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>221204-06-641005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>413-225132-16741</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>532-621231-27531</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0021-315-256421</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0022-415-322100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0132-114-556357</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1303-451-441325</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231-653-631238</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>561-252234-23543</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>552-653225-23421</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>562-242113-45632</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-766671-52500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗RAM 신발보다 싸다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO_006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO_008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_020</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,6 +1283,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,8 +1402,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="메모" xfId="2" builtinId="10"/>
@@ -769,19 +1688,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.375" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -812,8 +1732,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>76</v>
+      <c r="A2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -830,7 +1750,7 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>32019</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -856,7 +1776,7 @@
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>33211</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -882,7 +1802,7 @@
       <c r="F4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>35866</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -894,25 +1814,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="6">
+        <v>23398</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5">
-        <v>23398</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -920,292 +1840,546 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="6">
+        <v>27829</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="6">
+        <v>35397</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6">
+        <v>35237</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="6">
+        <v>36940</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="6">
+        <v>36697</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="6">
+        <v>35774</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="6">
+        <v>23249</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="6">
+        <v>33534</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6">
+        <v>31433</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="6">
+        <v>30673</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="6">
+        <v>33188</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6">
+        <v>34515</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="6">
+        <v>23122</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="6">
+        <v>35674</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="6">
+        <v>30733</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="6">
+        <v>28979</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="6">
+        <v>35033</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="6">
+        <v>32487</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="6">
+        <v>37991</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="6">
+        <v>33763</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="6">
+        <v>29457</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1218,14 +2392,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -1307,10 +2481,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -1329,243 +2503,507 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1577,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,10 +3049,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,80 +3080,134 @@
         <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
